--- a/delta2/lib_e/dfir_osir/dfir_20200508.xlsx
+++ b/delta2/lib_e/dfir_osir/dfir_20200508.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/dfir_osir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA13FD3B-BB05-C04C-A1C7-49D5D061E1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40462B1-C304-4F46-A2AE-E6F8C5DF61F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
@@ -38,18 +38,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
-    <t>evidence_object</t>
-  </si>
-  <si>
-    <t>non_standard_meta</t>
-  </si>
-  <si>
     <t>eid</t>
   </si>
   <si>
-    <t>source_type</t>
-  </si>
-  <si>
     <t>map_pid</t>
   </si>
   <si>
@@ -113,9 +104,6 @@
     <t>dfir20220508-eid0010</t>
   </si>
   <si>
-    <t>open source intel report</t>
-  </si>
-  <si>
     <t>["adfrind-pid0002", "adfind-pid0009"]</t>
   </si>
   <si>
@@ -150,6 +138,18 @@
   </si>
   <si>
     <t>process_create-windows_any</t>
+  </si>
+  <si>
+    <t>eid_type</t>
+  </si>
+  <si>
+    <t>evidence</t>
+  </si>
+  <si>
+    <t>ns_meta</t>
+  </si>
+  <si>
+    <t>object</t>
   </si>
 </sst>
 </file>
@@ -245,10 +245,10 @@
     <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{7EF46ADF-1083-8941-9C1C-59DA35B0598C}" name="map_did" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="source_type" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{EB72065A-5D22-8549-8CE0-1A9677239F1C}" name="non_standard_meta" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence_object" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{8FCACD48-C531-3247-B77F-427AC991055E}" name="description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="eid_type" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{8FCACD48-C531-3247-B77F-427AC991055E}" name="description" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{C7B82656-F15F-7745-84DF-32FD59F858CF}" name="ns_meta" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -574,7 +574,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,243 +582,243 @@
     <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.6640625" customWidth="1"/>
-    <col min="6" max="6" width="134.1640625" customWidth="1"/>
-    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="5" max="5" width="134.1640625" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" customWidth="1"/>
+    <col min="7" max="7" width="96.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
